--- a/ response.xlsx
+++ b/ response.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,90 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>WHICH PART IS THIS?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>filler</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ON WHICH PORT WILL THE WIRE OF TORQUE MOTOR GOES?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>how many castor wheels are inserted in one-arm soccer bot</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>WHICH PART IS THIS FROM MODEL?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l-channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WHICH SIZE OF AXLE WE HAVE TO INSERT IN TORQUE MOTOR?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.5mm axle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Can we use castor wheel on the back of the model (true/false)?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ON WHICH PART WE WILL INSERT THE ONE ARM ?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>square plate</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
